--- a/CashFlow/PANW_cashflow.xlsx
+++ b/CashFlow/PANW_cashflow.xlsx
@@ -840,19 +840,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-19100000.0</v>
+        <v>210000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-28000000.0</v>
+        <v>220000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-145400000.0</v>
+        <v>35900000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-75800000.0</v>
+        <v>51500000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-71100000.0</v>
+        <v>-1300000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-36400000.0</v>
